--- a/medicine/Psychotrope/Château_Bel-Air_(Médoc)/Château_Bel-Air_(Médoc).xlsx
+++ b/medicine/Psychotrope/Château_Bel-Air_(Médoc)/Château_Bel-Air_(Médoc).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bel-Air_(M%C3%A9doc)</t>
+          <t>Château_Bel-Air_(Médoc)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Bel Air Gloria est un domaine viticole de 37 hectares dans le Médoc, situé à Cussac-Fort-Médoc en Gironde. C'est une AOC haut-médoc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bel-Air_(M%C3%A9doc)</t>
+          <t>Château_Bel-Air_(Médoc)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1980, Françoise Triaud rachètent les premières parcelles, au terme de quatre ans de recherche et après la signature de vingt et un actes notariés différents, elle a pu reconstituer 35 hectares du vignoble de Château Bel Air.
 Renommé « Château Bel Air Gloria » depuis le millésime 2014 pour pouvoir être plus facilement identifié par les amateurs de vin considérant le nombre de propriétés viticoles portant le nom de « Bel Air ».
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bel-Air_(M%C3%A9doc)</t>
+          <t>Château_Bel-Air_(Médoc)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Le terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sol se compose de belles croupes graveleuses au sous-sol constitué en majorité d’argile bleue, ce qui contribue à donner au vin un caractère riche, capiteux, et très coloré. Dans la pure tradition médocaine, l’encépagement est de 65 % de cabernet sauvignon et 35 % de merlot. Environ 15 hectares du vignoble sont constitués de vignes ayant plus de 30 ans de moyenne d’âge.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bel-Air_(M%C3%A9doc)</t>
+          <t>Château_Bel-Air_(Médoc)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des vendanges manuelles, la vinification est assurée par la même équipe que celle qui produit le château Gloria et le château Saint-Pierre.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bel-Air_(M%C3%A9doc)</t>
+          <t>Château_Bel-Air_(Médoc)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
